--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="262">
   <si>
     <t>ITEM</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>DAIZAI</t>
+  </si>
+  <si>
+    <t>LC-R01-H75-8</t>
+  </si>
+  <si>
+    <t>LC-R01-H75-12</t>
+  </si>
+  <si>
+    <t>LC-R01-H75</t>
   </si>
   <si>
     <t>XIANCAI</t>
@@ -520,6 +529,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>点间距:P1.2
 模组分辨率（W*H）:256*128
 模组尺寸（mm）:320.0*160.0*16.6
@@ -610,6 +624,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>点间距:P1.5
 模组分辨率（W*H）:208*104
 模组尺寸（mm）:320*160*16
@@ -699,6 +718,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>点间距:P1.8
 模组分辨率（W*H）:172*86
 模组尺寸（mm）:320*160*17mm
@@ -791,6 +815,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>点间距:P2.0
 模组分辨率（W*H）:160*80
 模组尺寸（mm）:320*160*17mm
@@ -880,6 +909,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>点间距:P2.5
 模组分辨率（W*H）:128*64
 模组尺寸（mm）:320*160*17
@@ -972,6 +1006,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>点间距:P3
 模组分辨率（W*H）:64*64
 模组尺寸（mm）:192*192*12
@@ -1066,6 +1105,9 @@
     <t>[6,5]</t>
   </si>
   <si>
+    <t>[8,4]</t>
+  </si>
+  <si>
     <t>HUWAILED</t>
   </si>
   <si>
@@ -1113,6 +1155,15 @@
     <t>[4,8]</t>
   </si>
   <si>
+    <t>[2,8]</t>
+  </si>
+  <si>
+    <t>[2,12]</t>
+  </si>
+  <si>
+    <t>[2,16]</t>
+  </si>
+  <si>
     <t>4.0mm间距户外LED显示模组</t>
   </si>
   <si>
@@ -1202,7 +1253,25 @@
     <t>强磁铁</t>
   </si>
   <si>
-    <t>JIESHOUKA</t>
+    <t>DIANYUAN</t>
+  </si>
+  <si>
+    <t>LED电源</t>
+  </si>
+  <si>
+    <t>HB-LPWR200-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入电压:176~264V AC
+输入频率（Hz）:47~63
+输入电流（A）:3（最大）
+额定输入:200~240V AC
+额定输出:5V
+输出电流（A）:0~40
+</t>
+  </si>
+  <si>
+    <t>JIESHOUKA-LN</t>
   </si>
   <si>
     <t>8口LED接收卡</t>
@@ -1251,25 +1320,7 @@
 双程序备份，接收卡出厂时应用区保存了两份固件程序，以防程序更新过程异常出现接收卡死锁问题。</t>
   </si>
   <si>
-    <t>DIANYUAN</t>
-  </si>
-  <si>
-    <t>LED电源</t>
-  </si>
-  <si>
-    <t>HB-LPWR200-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入电压:176~264V AC
-输入频率（Hz）:47~63
-输入电流（A）:3（最大）
-额定输入:200~240V AC
-额定输出:5V
-输出电流（A）:0~40
-</t>
-  </si>
-  <si>
-    <t>FASONGKA</t>
+    <t>FASONGKA-LN</t>
   </si>
   <si>
     <t>LED小间距产品1080P发送卡</t>
@@ -1293,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t>LEDCHULIQI</t>
+    <t>LEDCHULIQI-LN</t>
   </si>
   <si>
     <t>2网口LED视频处理器</t>
@@ -1420,6 +1471,9 @@
 </t>
   </si>
   <si>
+    <t>FASONGKA-LC</t>
+  </si>
+  <si>
     <t>4网口LED发送卡</t>
   </si>
   <si>
@@ -1432,6 +1486,128 @@
 4.支持视频源任意切换，缩放和裁剪，支持画面偏移
 5.支持亮度和色温调节，支持低亮高灰
 6.双USB2.0高速通讯接口，支持电脑调试和主控间任意级联</t>
+  </si>
+  <si>
+    <t>JIESHOUKA-LC</t>
+  </si>
+  <si>
+    <t>8口HUB75接口LED接收卡</t>
+  </si>
+  <si>
+    <t>1.自带8个HUB75接口，支持16组并行全彩数据，32组RGB、R16G16B16等形式串行
+2.支持常规芯片、PWM芯片、士兰芯片和灯饰芯片等所有主流LED驱动芯片
+3.单卡控制面积（亮度）及校正区域（色度）：常规：256*256像素，PWM：512*256像素，士兰：256*324像素
+4.支持静态到64扫描之间的任意扫描类型
+5.支持任意抽点抽行抽列，支持数据组偏移，可轻松实现各种异型屏、球形屏、创意显示屏</t>
+  </si>
+  <si>
+    <t>12口HUB75接口LED接收卡</t>
+  </si>
+  <si>
+    <t>1.自带12个HUB75接口，支持24组并行全彩数据，32组RGB、R16G16B16等形式串行
+2.支持常规芯片、PWM芯片、士兰芯片和灯饰芯片等所有主流LED驱动芯片
+3.单卡控制面积（亮度）及校正区域（色度）：常规：512*256像素，PWM：512*384像素，士兰：512*324像素
+4.支持静态到128扫描之间的任意扫描类型
+5.支持任意抽点抽行抽列，支持数据组偏移，可轻松实现各种异型屏、球形屏、创意显示屏</t>
+  </si>
+  <si>
+    <t>16口HUB75接口LED接收卡</t>
+  </si>
+  <si>
+    <t>1.自带16个HUB75接口，支持32组并行全彩数据，64组RGB、R16G16B16等形式串行
+2.支持常规芯片、PWM芯片、士兰芯片和灯饰芯片等所有主流LED驱动芯片
+3.单卡控制面积（亮度）及校正区域（色度）：常规：512*256像素，PWM：512*512像素，士兰：512*324像素
+4.支持静态到64扫描之间的任意扫描类型
+5.支持任意抽点抽行抽列，支持数据组偏移，可轻松实现各种异型屏、球形屏、创意显示屏</t>
+  </si>
+  <si>
+    <t>LEDCHULIQI-LC</t>
+  </si>
+  <si>
+    <t>2千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>LC-C02</t>
+  </si>
+  <si>
+    <t>1.具有2类视频输入接口，包括1路HDMI和2路DVI，最大输入分辨率1920×1200@60Hz，支持分辨率任意设置
+2.2路RJ45千兆网口输出
+3.最大带载131万像素，最宽可达4096点，或最高可达2560点
+4.支持视频源任意切换，缩放和裁剪，支持画面偏移
+5.支持亮度和色温调节，支持低亮高灰
+6.双USB2.0高速通讯接口，支持电脑调试和主控间任意级联</t>
+  </si>
+  <si>
+    <t>4千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>6千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>LC-C06</t>
+  </si>
+  <si>
+    <t>1.丰富的数字信号接口，包括2路DVI，1路HDMI，1路SDI，最大输入分辨率1920×1200@60Hz，支持分辨率任意设置
+2.6路RJ45千兆网口输出
+3.最大带载390万像素，最宽可达8192点，或最高可达4096点
+4.支持视频源任意切换，缩放和裁剪，支持画面偏移
+5.支持亮度和色温调节，对比度、色调、饱和度调节，支持低亮高灰
+6.支持3画面显示，位置、大小可自由调节
+7.双USB2.0高速通讯接口，支持电脑调试和主控间任意级联</t>
+  </si>
+  <si>
+    <t>8千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>LC-C07</t>
+  </si>
+  <si>
+    <t>1.丰富的数字信号接口，包括2路DVI，1路HDMI，1路SDI，最大输入分辨率1920×1200@60Hz，支持分辨率任意设置
+2.8路RJ45千兆网口输出
+3.最大带载520万像素，最宽可达8192点，或最高可达4096点
+4.支持视频源任意切换，缩放和裁剪，支持画面偏移
+5.支持亮度和色温调节，对比度、色调、饱和度调节，支持低亮高灰
+6.支持3画面显示，位置、大小可自由调节
+7.双USB2.0高速通讯接口，支持电脑调试和主控间任意级联</t>
+  </si>
+  <si>
+    <t>12千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>LC-C12</t>
+  </si>
+  <si>
+    <t>1.丰富的数字信号接口，包括3路HDMI和1路DVI，最大输入分辨率1920×1200@60Hz，支持分辨率任意设置
+2.12路RJ45千兆网口输出
+3.最大带载720万像素，最宽可达8192像素，最高可达4096像素
+4.支持视频源任意切换，可根据显示屏分辨率对输入图像进行拼接、缩放
+5.支持亮度和色温调节，对比度、色调、饱和度调节，支持低亮高灰
+6.支持3画面显示，位置、大小可自由调节
+7.双USB2.0高速通讯接口，支持电脑调试和主控间任意级联</t>
+  </si>
+  <si>
+    <t>16千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>LC-C16</t>
+  </si>
+  <si>
+    <t>1.支持丰富的数字信号接口，包括3路HDMI、2路DVI、1路DP，最大输入分辨率4096*2160@60Hz，支持分辨率任意设置
+2.16路RJ45千兆网口输出
+3.最大带载1048万像素，最宽可达16384像素，最高可达8192像素
+4.支持视频源任意切换，可根据显示屏分辨率对输入图像进行拼接、缩放
+5.支持亮度和色温调节，对比度、色调、饱和度调节，支持低亮高灰
+6.支持6画面显示，位置、大小可自由调节
+7.双USB2.0高速通讯接口，支持电脑调试和主控间任意级联</t>
+  </si>
+  <si>
+    <t>20千兆网口输出LED视频处理器</t>
+  </si>
+  <si>
+    <t>LC-C20M</t>
+  </si>
+  <si>
+    <t>20网口LED视频处理器(视频输入分辨率:4096*2160@60Hz，支持分辨率任意设置 视频输入:1个HDMI（4K）、2个HDMI、2个DVI、1个DP、1个USB 带载网口:20个千兆网口、2个万兆光纤口 最大带载:1310万像素，最宽可达16384点，或最高可达8192点 音频输入:1个AUDIO IN 音频输出:1个AUDIO OUT 控制接口:1个USB IN、1个USB OUT、1个RS232、1个RJ45网口 其它接口:3D（预留），3D同步信号输出 工作电压:AC 100~240V 50/60Hz 整机功耗（W）:80 产品尺寸（W*H*D）（mm）:482.6*103.0*415.0 包装尺寸（W*H*D）（mm）:560.0*175.0*490.0 重量（Kg）:净重：6.2 毛重：8.9 工作温度:-20℃~60℃ 工作湿度:0%RH ~ 80%RH，无冷凝 储藏温度:-30℃~80℃ 储藏湿度:0%RH ~ 90%RH，无冷凝 )</t>
   </si>
   <si>
     <t>PEIDIANXIANG</t>
@@ -2402,7 +2578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2451,6 +2627,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2458,15 +2641,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2479,8 +2653,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3009,12 +3194,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3028,10 +3213,14 @@
     <col min="7" max="7" width="10.1" style="4" customWidth="1"/>
     <col min="8" max="10" width="9" style="4"/>
     <col min="11" max="11" width="12.1666666666667" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="12" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="10.125" style="4"/>
+    <col min="15" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="9.99166666666667" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3071,22 +3260,31 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="8">
         <v>30</v>
@@ -3094,19 +3292,19 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8">
         <v>65</v>
@@ -3114,19 +3312,19 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8">
         <v>110</v>
@@ -3134,19 +3332,19 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="8">
         <v>165</v>
@@ -3154,19 +3352,19 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
         <v>500</v>
@@ -3174,19 +3372,19 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8">
         <v>300</v>
@@ -3194,19 +3392,19 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8">
         <v>100</v>
@@ -3214,19 +3412,19 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2">
         <v>99</v>
@@ -3234,19 +3432,19 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
         <v>208</v>
@@ -3254,19 +3452,19 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
         <v>297</v>
@@ -3274,19 +3472,19 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2">
         <v>446</v>
@@ -3294,19 +3492,19 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2">
         <v>640</v>
@@ -3314,19 +3512,19 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2">
         <v>1040</v>
@@ -3334,19 +3532,19 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2">
         <v>1840</v>
@@ -3354,19 +3552,19 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2">
         <v>2070</v>
@@ -3374,19 +3572,19 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2">
         <v>4600</v>
@@ -3394,19 +3592,19 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2">
         <v>6900</v>
@@ -3414,19 +3612,19 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2">
         <v>9200</v>
@@ -3434,19 +3632,19 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2">
         <v>2190</v>
@@ -3454,19 +3652,19 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2">
         <v>2990</v>
@@ -3474,19 +3672,19 @@
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2">
         <v>4320</v>
@@ -3494,19 +3692,19 @@
     </row>
     <row r="23" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F23" s="11">
         <v>1800</v>
@@ -3514,19 +3712,19 @@
     </row>
     <row r="24" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F24" s="11">
         <v>1750</v>
@@ -3534,16 +3732,16 @@
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="2:6">
       <c r="B25" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F25" s="12">
         <v>1800</v>
@@ -3551,19 +3749,19 @@
     </row>
     <row r="26" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F26" s="12">
         <v>4100</v>
@@ -3571,19 +3769,19 @@
     </row>
     <row r="27" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F27" s="12">
         <v>4200</v>
@@ -3591,252 +3789,291 @@
     </row>
     <row r="28" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F28" s="12">
         <v>7600</v>
       </c>
     </row>
-    <row r="29" ht="56" customHeight="1" spans="1:11">
+    <row r="29" ht="56" customHeight="1" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F29" s="14">
         <v>350</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I29" s="24">
         <v>600</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" ht="56" customHeight="1" spans="1:11">
+        <v>115</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" ht="56" customHeight="1" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F30" s="4">
         <v>209</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I30" s="24">
         <v>600</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" ht="56" customHeight="1" spans="1:11">
+        <v>115</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" ht="56" customHeight="1" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="4">
         <v>132</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I31" s="24">
         <v>550</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" ht="56" customHeight="1" spans="1:11">
+        <v>124</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" ht="56" customHeight="1" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4">
         <v>118</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I32" s="24">
         <v>550</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" ht="56" customHeight="1" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" ht="56" customHeight="1" spans="1:16">
       <c r="A33" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F33" s="4">
         <v>65</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I33" s="24">
         <v>550</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" ht="56" customHeight="1" spans="1:12">
+        <v>133</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" ht="56" customHeight="1" spans="1:16">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F34" s="4">
         <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I34" s="24">
         <v>550</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:12">
+        <v>141</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:16">
       <c r="A35" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F35" s="4">
         <v>252</v>
@@ -3845,48 +4082,66 @@
         <v>800</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:12">
+        <v>133</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:16">
       <c r="C36" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E36" s="13"/>
       <c r="I36" s="26">
         <v>800</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F37" s="4">
         <v>95</v>
@@ -3895,30 +4150,39 @@
         <v>800</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:16">
       <c r="A38" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F38" s="4">
         <v>77</v>
@@ -3927,66 +4191,93 @@
         <v>800</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:12">
+        <v>150</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:16">
       <c r="C39" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E39" s="13"/>
       <c r="I39" s="26">
         <v>800</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:12">
+        <v>164</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:16">
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E40" s="13"/>
       <c r="I40" s="26">
         <v>800</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F41" s="4">
         <v>20</v>
@@ -3994,99 +4285,99 @@
     </row>
     <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="4">
-        <v>76</v>
+        <v>172</v>
+      </c>
+      <c r="F42" s="14">
+        <v>38</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F43" s="4">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F44" s="4">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="14">
-        <v>38</v>
+        <v>179</v>
+      </c>
+      <c r="F45" s="4">
+        <v>99</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F46" s="4">
         <v>1715</v>
@@ -4094,19 +4385,19 @@
     </row>
     <row r="47" customHeight="1" spans="1:13">
       <c r="A47" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F47" s="4">
         <v>670</v>
@@ -4117,19 +4408,19 @@
     </row>
     <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F48" s="4">
         <v>1165</v>
@@ -4140,19 +4431,19 @@
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F49" s="4">
         <v>2265</v>
@@ -4163,19 +4454,19 @@
     </row>
     <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F50" s="4">
         <v>4455</v>
@@ -4184,21 +4475,21 @@
         <v>6175000</v>
       </c>
     </row>
-    <row r="51" ht="58" customHeight="1" spans="1:13">
+    <row r="51" ht="16" customHeight="1" spans="1:13">
       <c r="A51" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F51" s="4">
         <v>9845</v>
@@ -4209,19 +4500,19 @@
     </row>
     <row r="52" customHeight="1" spans="1:13">
       <c r="A52" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F52" s="4">
         <v>12980</v>
@@ -4232,19 +4523,19 @@
     </row>
     <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F53" s="4">
         <v>1475</v>
@@ -4252,182 +4543,416 @@
     </row>
     <row r="54" customHeight="1" spans="1:13">
       <c r="A54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>203</v>
+        <v>208</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="F54" s="4">
-        <v>1680</v>
-      </c>
-      <c r="M54" s="28">
-        <v>10000</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="M54" s="28"/>
     </row>
     <row r="55" customHeight="1" spans="1:13">
       <c r="A55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="F55" s="4">
-        <v>1980</v>
-      </c>
-      <c r="M55" s="28">
-        <v>20000</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="M55" s="28"/>
     </row>
     <row r="56" customHeight="1" spans="1:13">
       <c r="A56" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>209</v>
+      <c r="B56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="F56" s="4">
-        <v>2280</v>
-      </c>
-      <c r="M56" s="28">
-        <v>30000</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="M56" s="28"/>
     </row>
     <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="F57" s="4">
-        <v>2580</v>
-      </c>
-      <c r="M57" s="28">
-        <v>40000</v>
+        <v>695</v>
+      </c>
+      <c r="L57" s="28"/>
+      <c r="M57" s="29">
+        <v>1244500</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:13">
       <c r="A58" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E58" s="23" t="s">
         <v>215</v>
       </c>
+      <c r="B58" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="F58" s="4">
-        <v>2880</v>
-      </c>
-      <c r="M58" s="28">
-        <v>50000</v>
+        <v>1410</v>
+      </c>
+      <c r="L58" s="28"/>
+      <c r="M58" s="29">
+        <v>2470000</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:13">
       <c r="A59" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="F59" s="4">
-        <v>3180</v>
-      </c>
-      <c r="M59" s="28">
-        <v>60000</v>
+        <v>2970</v>
+      </c>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29">
+        <v>3705000</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:13">
       <c r="A60" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="F60" s="4">
+        <v>4180</v>
+      </c>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:13">
+      <c r="A61" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4620</v>
+      </c>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29">
+        <v>6840000</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:13">
+      <c r="A62" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="4">
+        <v>9680</v>
+      </c>
+      <c r="L62" s="28"/>
+      <c r="M62" s="29">
+        <v>9956000</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:13">
+      <c r="A63" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="4">
+        <v>11880</v>
+      </c>
+      <c r="L63" s="28"/>
+      <c r="M63" s="29">
+        <v>12445000</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:13">
+      <c r="A64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1680</v>
+      </c>
+      <c r="M64" s="30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:13">
+      <c r="A65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1980</v>
+      </c>
+      <c r="M65" s="30">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:13">
+      <c r="A66" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2280</v>
+      </c>
+      <c r="M66" s="30">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:13">
+      <c r="A67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2580</v>
+      </c>
+      <c r="M67" s="30">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:13">
+      <c r="A68" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2880</v>
+      </c>
+      <c r="M68" s="30">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:13">
+      <c r="A69" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3180</v>
+      </c>
+      <c r="M69" s="30">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:13">
+      <c r="A70" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="4">
         <v>3480</v>
       </c>
-      <c r="M60" s="28">
+      <c r="M70" s="30">
         <v>80000</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:6">
-      <c r="A61" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="4">
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="4">
         <v>650</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1320,30 +1320,6 @@
 双程序备份，接收卡出厂时应用区保存了两份固件程序，以防程序更新过程异常出现接收卡死锁问题。</t>
   </si>
   <si>
-    <t>FASONGKA-LN</t>
-  </si>
-  <si>
-    <t>LED小间距产品1080P发送卡</t>
-  </si>
-  <si>
-    <t>UNV-MCTRL700</t>
-  </si>
-  <si>
-    <t>LED小间距产品发送卡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">视频输入分辨率:1920×1200@60Hz
-带载网口:6个
-最大带载:230万像素
-视频输入:1个HDMI IN、1个DVI IN
-音频输入:1个AUDIO IN
-视频输出:1个HDMI OUT、 1个DVI OUT
-支持1路USB接口控制
-支持2路UART级联控制接口，最大支持级联20台设备
-支持逐点亮色度校正
-</t>
-  </si>
-  <si>
     <t>LEDCHULIQI-LN</t>
   </si>
   <si>
@@ -1468,6 +1444,30 @@
 工作湿度:0%RH ~ 80%RH，无冷凝
 储藏温度: -20℃~60℃
 储藏湿度:0%RH ~ 95%RH，无冷凝
+</t>
+  </si>
+  <si>
+    <t>FASONGKA-LN</t>
+  </si>
+  <si>
+    <t>LED小间距产品1080P发送卡</t>
+  </si>
+  <si>
+    <t>UNV-MCTRL700</t>
+  </si>
+  <si>
+    <t>LED小间距产品发送卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">视频输入分辨率:1920×1200@60Hz
+带载网口:6个
+最大带载:230万像素
+视频输入:1个HDMI IN、1个DVI IN
+音频输入:1个AUDIO IN
+视频输出:1个HDMI OUT、 1个DVI OUT
+支持1路USB接口控制
+支持2路UART级联控制接口，最大支持级联20台设备
+支持逐点亮色度校正
 </t>
   </si>
   <si>
@@ -2578,7 +2578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2627,13 +2627,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2653,7 +2646,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3196,10 +3188,10 @@
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3260,13 +3252,13 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3832,7 +3824,7 @@
       <c r="H29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="21">
         <v>600</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -3867,16 +3859,16 @@
       <c r="H30" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="21">
         <v>600</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="22" t="s">
         <v>115</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="22" t="s">
         <v>115</v>
       </c>
       <c r="O30" s="4" t="s">
@@ -3908,19 +3900,19 @@
       <c r="H31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="21">
         <v>550</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="22" t="s">
         <v>124</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3949,7 +3941,7 @@
       <c r="H32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="21">
         <v>550</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -3990,7 +3982,7 @@
       <c r="H33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="21">
         <v>550</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -3999,7 +3991,7 @@
       <c r="K33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="22" t="s">
         <v>133</v>
       </c>
       <c r="N33" s="4" t="s">
@@ -4008,7 +4000,7 @@
       <c r="O33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P33" s="25" t="s">
+      <c r="P33" s="22" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4037,7 +4029,7 @@
       <c r="H34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="21">
         <v>550</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -4078,7 +4070,7 @@
       <c r="F35" s="4">
         <v>252</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="23">
         <v>800</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -4087,7 +4079,7 @@
       <c r="K35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="22" t="s">
         <v>133</v>
       </c>
       <c r="N35" s="4" t="s">
@@ -4096,7 +4088,7 @@
       <c r="O35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P35" s="25" t="s">
+      <c r="P35" s="22" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4105,7 +4097,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="I36" s="26">
+      <c r="I36" s="23">
         <v>800</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -4146,7 +4138,7 @@
       <c r="F37" s="4">
         <v>95</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="23">
         <v>800</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -4187,7 +4179,7 @@
       <c r="F38" s="4">
         <v>77</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="23">
         <v>800</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -4214,7 +4206,7 @@
         <v>161</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="I39" s="26">
+      <c r="I39" s="23">
         <v>800</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -4241,7 +4233,7 @@
         <v>165</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="I40" s="26">
+      <c r="I40" s="23">
         <v>800</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -4363,7 +4355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" customHeight="1" spans="1:13">
       <c r="A46" s="4" t="s">
         <v>180</v>
       </c>
@@ -4374,154 +4366,157 @@
         <v>182</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="F46" s="4">
+        <v>670</v>
+      </c>
+      <c r="M46" s="24">
+        <v>1235000</v>
+      </c>
+    </row>
+    <row r="47" ht="86" customHeight="1" spans="1:13">
+      <c r="A47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="4">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:13">
-      <c r="A47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="F47" s="4">
-        <v>670</v>
-      </c>
-      <c r="M47" s="27">
-        <v>1235000</v>
+        <v>1165</v>
+      </c>
+      <c r="M47" s="24">
+        <v>2470000</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="F48" s="4">
-        <v>1165</v>
-      </c>
-      <c r="M48" s="27">
-        <v>2470000</v>
+        <v>2265</v>
+      </c>
+      <c r="M48" s="24">
+        <v>3705000</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="4">
+        <v>4455</v>
+      </c>
+      <c r="M49" s="24">
+        <v>6175000</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1" spans="1:13">
+      <c r="A50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="17" t="s">
+      <c r="C50" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="4">
-        <v>2265</v>
-      </c>
-      <c r="M49" s="27">
-        <v>3705000</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:13">
-      <c r="A50" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="F50" s="4">
+        <v>9845</v>
+      </c>
+      <c r="M50" s="24">
+        <v>9880000</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:13">
+      <c r="A51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="C51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="4">
-        <v>4455</v>
-      </c>
-      <c r="M50" s="27">
-        <v>6175000</v>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1" spans="1:13">
-      <c r="A51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="D51" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="F51" s="4">
-        <v>9845</v>
-      </c>
-      <c r="M51" s="27">
-        <v>9880000</v>
+        <v>12980</v>
+      </c>
+      <c r="M51" s="24">
+        <v>14820000</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:13">
       <c r="A52" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="15" t="s">
         <v>203</v>
       </c>
       <c r="F52" s="4">
-        <v>12980</v>
-      </c>
-      <c r="M52" s="27">
-        <v>14820000</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:6">
+        <v>1715</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2185000</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:13">
       <c r="A53" s="4" t="s">
         <v>204</v>
       </c>
@@ -4532,7 +4527,7 @@
         <v>206</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>207</v>
@@ -4540,94 +4535,90 @@
       <c r="F53" s="4">
         <v>1475</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:13">
+      <c r="M53" s="4">
+        <v>2185000</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F54" s="4">
         <v>70</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="M54" s="28"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:13">
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
       <c r="A55" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="17" t="s">
         <v>212</v>
       </c>
       <c r="F55" s="4">
         <v>82</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="M55" s="28"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:13">
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F56" s="4">
         <v>95</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="M56" s="28"/>
     </row>
     <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="13" t="s">
         <v>218</v>
       </c>
       <c r="F57" s="4">
         <v>695</v>
       </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="29">
+      <c r="M57" s="25">
         <v>1244500</v>
       </c>
     </row>
@@ -4635,23 +4626,22 @@
       <c r="A58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="13" t="s">
         <v>207</v>
       </c>
       <c r="F58" s="4">
         <v>1410</v>
       </c>
-      <c r="L58" s="28"/>
-      <c r="M58" s="29">
+      <c r="M58" s="25">
         <v>2470000</v>
       </c>
     </row>
@@ -4659,23 +4649,22 @@
       <c r="A59" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="13" t="s">
         <v>222</v>
       </c>
       <c r="F59" s="4">
         <v>2970</v>
       </c>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29">
+      <c r="M59" s="25">
         <v>3705000</v>
       </c>
     </row>
@@ -4683,23 +4672,22 @@
       <c r="A60" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="13" t="s">
         <v>225</v>
       </c>
       <c r="F60" s="4">
         <v>4180</v>
       </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29">
+      <c r="M60" s="25">
         <v>4940000</v>
       </c>
     </row>
@@ -4707,23 +4695,22 @@
       <c r="A61" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="13" t="s">
         <v>228</v>
       </c>
       <c r="F61" s="4">
         <v>4620</v>
       </c>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29">
+      <c r="M61" s="25">
         <v>6840000</v>
       </c>
     </row>
@@ -4731,23 +4718,22 @@
       <c r="A62" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="13" t="s">
         <v>231</v>
       </c>
       <c r="F62" s="4">
         <v>9680</v>
       </c>
-      <c r="L62" s="28"/>
-      <c r="M62" s="29">
+      <c r="M62" s="25">
         <v>9956000</v>
       </c>
     </row>
@@ -4755,23 +4741,22 @@
       <c r="A63" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="13" t="s">
         <v>234</v>
       </c>
       <c r="F63" s="4">
         <v>11880</v>
       </c>
-      <c r="L63" s="28"/>
-      <c r="M63" s="29">
+      <c r="M63" s="25">
         <v>12445000</v>
       </c>
     </row>
@@ -4779,22 +4764,22 @@
       <c r="A64" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="20" t="s">
         <v>238</v>
       </c>
       <c r="F64" s="4">
         <v>1680</v>
       </c>
-      <c r="M64" s="30">
+      <c r="M64" s="26">
         <v>10000</v>
       </c>
     </row>
@@ -4802,22 +4787,22 @@
       <c r="A65" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="29" t="s">
         <v>241</v>
       </c>
       <c r="F65" s="4">
         <v>1980</v>
       </c>
-      <c r="M65" s="30">
+      <c r="M65" s="26">
         <v>20000</v>
       </c>
     </row>
@@ -4825,22 +4810,22 @@
       <c r="A66" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="29" t="s">
         <v>244</v>
       </c>
       <c r="F66" s="4">
         <v>2280</v>
       </c>
-      <c r="M66" s="30">
+      <c r="M66" s="26">
         <v>30000</v>
       </c>
     </row>
@@ -4848,22 +4833,22 @@
       <c r="A67" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="29" t="s">
         <v>247</v>
       </c>
       <c r="F67" s="4">
         <v>2580</v>
       </c>
-      <c r="M67" s="30">
+      <c r="M67" s="26">
         <v>40000</v>
       </c>
     </row>
@@ -4871,22 +4856,22 @@
       <c r="A68" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="29" t="s">
         <v>250</v>
       </c>
       <c r="F68" s="4">
         <v>2880</v>
       </c>
-      <c r="M68" s="30">
+      <c r="M68" s="26">
         <v>50000</v>
       </c>
     </row>
@@ -4894,22 +4879,22 @@
       <c r="A69" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="29" t="s">
         <v>253</v>
       </c>
       <c r="F69" s="4">
         <v>3180</v>
       </c>
-      <c r="M69" s="30">
+      <c r="M69" s="26">
         <v>60000</v>
       </c>
     </row>
@@ -4917,22 +4902,22 @@
       <c r="A70" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="29" t="s">
         <v>256</v>
       </c>
       <c r="F70" s="4">
         <v>3480</v>
       </c>
-      <c r="M70" s="30">
+      <c r="M70" s="26">
         <v>80000</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="521">
   <si>
     <t>ITEM</t>
   </si>
@@ -56,6 +56,9 @@
     <t>GONGLV</t>
   </si>
   <si>
+    <t>JIANJU</t>
+  </si>
+  <si>
     <t>LN-DH7508-S</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>LN-DH7516-S</t>
+  </si>
+  <si>
+    <t>WANGKOU</t>
   </si>
   <si>
     <t>DAIZAI</t>
@@ -522,10 +528,13 @@
     <t>SHINEILED</t>
   </si>
   <si>
+    <t>1.25mm间距 LED显示模组</t>
+  </si>
+  <si>
+    <t>MW-M12-RB</t>
+  </si>
+  <si>
     <t>1.25mm间距LED显示模组</t>
-  </si>
-  <si>
-    <t>MW-M12-RB</t>
   </si>
   <si>
     <r>
@@ -808,10 +817,13 @@
     <t>[1,12],[2,6],[3,4]</t>
   </si>
   <si>
+    <t>2.0mm间距 LED显示模组</t>
+  </si>
+  <si>
+    <t>MW-M20-RB</t>
+  </si>
+  <si>
     <t>2mm间距 LED显示模组</t>
-  </si>
-  <si>
-    <t>MW-M20-RB</t>
   </si>
   <si>
     <r>
@@ -999,10 +1011,13 @@
     <t>[2,8],[4,4]</t>
   </si>
   <si>
+    <t>3.0mm间距 LED显示模组</t>
+  </si>
+  <si>
+    <t>MW-M30-RB</t>
+  </si>
+  <si>
     <t>3mm间距 LED显示模组</t>
-  </si>
-  <si>
-    <t>MW-M30-RB</t>
   </si>
   <si>
     <r>
@@ -1111,10 +1126,13 @@
     <t>HUWAILED</t>
   </si>
   <si>
+    <t>2.5mm间距 户外LED显示模组</t>
+  </si>
+  <si>
+    <t>MW-M25-WB</t>
+  </si>
+  <si>
     <t>2.5mm间距户外LED显示模组</t>
-  </si>
-  <si>
-    <t>MW-M25-WB</t>
   </si>
   <si>
     <t xml:space="preserve">点间距:P2.5
@@ -1143,9 +1161,97 @@
 </t>
   </si>
   <si>
+    <t>3.0mm间距 户外LED显示模组</t>
+  </si>
+  <si>
     <t>MW-M30-WB</t>
   </si>
   <si>
+    <t>3.0mm间距户外LED显示模组</t>
+  </si>
+  <si>
+    <r>
+      <t>点间距:P3
+模组分辨率（W*H）:104*52
+模组尺寸（mm）:319.8*159.8*17.1
+亮度（nits）:4500
+色温（K）:3000～12000可调
+视角（H/V）:120°/120°
+发光点中心距偏差:≤3%
+亮度均匀性:≥95%
+色度均匀性:±0.003Cx,Cy之内
+对比度:3000：1
+像素密度（点/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）:105625
+平整度（mm）:≤0.5
+灰度等级（bit）:14
+扫描方式（S）:13
+驱动方式:恒流驱动
+换帧频率（Hz）:50/60
+刷新频率（Hz）:3840
+供电要求:DC 4.5V
+最大功耗（W/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）:850
+平均功耗（W/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）:285
+单元板信号接口:HUB75
+防护等级:IP65
+重量（Kg/pcs）:0.47±0.02
+</t>
+    </r>
+  </si>
+  <si>
     <t>[2,4]</t>
   </si>
   <si>
@@ -1164,10 +1270,13 @@
     <t>[2,16]</t>
   </si>
   <si>
+    <t>4.0mm间距 户外LED显示模组</t>
+  </si>
+  <si>
+    <t>MW-M40-WB</t>
+  </si>
+  <si>
     <t>4.0mm间距户外LED显示模组</t>
-  </si>
-  <si>
-    <t>MW-M40-WB</t>
   </si>
   <si>
     <t xml:space="preserve">点间距:P4
@@ -1195,10 +1304,13 @@
 </t>
   </si>
   <si>
+    <t>5.0mm间距 户外LED显示模组</t>
+  </si>
+  <si>
+    <t>MW-M50-WB</t>
+  </si>
+  <si>
     <t>5.0mm间距户外LED显示模组</t>
-  </si>
-  <si>
-    <t>MW-M50-WB</t>
   </si>
   <si>
     <t>点间距:P5
@@ -1229,9 +1341,97 @@
     <t>[3,8]</t>
   </si>
   <si>
+    <t>6.0mm间距 户外LED显示模组</t>
+  </si>
+  <si>
     <t>MW-M60-WB</t>
   </si>
   <si>
+    <t>6.0mm间距户外LED显示模组</t>
+  </si>
+  <si>
+    <r>
+      <t>点间距:P6
+模组分辨率（W*H）:32*32
+模组尺寸（mm）:191.7*191.7*15.4
+亮度（nits）:4500
+色温（K）:3000～12000可调
+视角（H/V）:140°/140°
+发光点中心距偏差:≤3%
+亮度均匀性:≥95%
+色度均匀性:±0.003Cx,Cy之内
+对比度:3000：1
+像素密度（点/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）:27777
+平整度（mm）:≤0.5
+灰度等级（bit）:14
+扫描方式（S）:8
+驱动方式:恒流驱动
+换帧频率（Hz）:50/60
+刷新频率（Hz）:3840
+供电要求:DC 4.5V
+最大功耗（W/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）:850
+平均功耗（W/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）:285
+单元板信号接口:HUB75
+防护等级:IP65
+重量（Kg/pcs）:0.36±0.02
+</t>
+    </r>
+  </si>
+  <si>
     <t>[5,8]</t>
   </si>
   <si>
@@ -1241,7 +1441,632 @@
     <t>[8,8]</t>
   </si>
   <si>
+    <t>8.0mm间距 户外LED显示模组</t>
+  </si>
+  <si>
     <t>MW-M80-WB</t>
+  </si>
+  <si>
+    <t>8.0mm间距户外LED显示模组</t>
+  </si>
+  <si>
+    <r>
+      <t>点间距:P8
+模组分辨率（W*H）:40*20
+模组尺寸（mm）:319.8*159.8*19.6
+亮度（nits）:4500
+色温（K）:3000～12000可调
+视角（H/V）:140°/140°
+发光点中心距偏差:≤3%
+亮度均匀性:≥95%
+色度均匀性:±0.003Cx,Cy之内
+对比度:3000：1
+像素密度（点/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）:15625
+平整度（mm）:≤0.5
+灰度等级（bit）:14
+扫描方式（S）:5
+驱动方式:恒流驱动
+换帧频率（Hz）:50/60
+刷新频率（Hz）:3840
+供电要求:DC 4.5V
+最大功耗（W/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）:850
+平均功耗（W/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）:285
+单元板信号接口:HUB75
+防护等级:IP65
+重量（Kg/pcs）:0.45±0.02
+</t>
+    </r>
+  </si>
+  <si>
+    <t>XIANGTILED</t>
+  </si>
+  <si>
+    <t>太湖COB-P0.9 600x337.5</t>
+  </si>
+  <si>
+    <t>MW7209-S-T</t>
+  </si>
+  <si>
+    <t>太湖COB P0.9</t>
+  </si>
+  <si>
+    <t>封装形式： 全倒装COB共阴
+像素间距（mm）： 0.9
+模组尺寸（W*H）（mm）： 150*168.75
+模组分辨率（W*H）： 160*180
+箱体尺寸（W*H*D）（mm）： 600*337.5*39.5
+箱体分辨率（W*H）： 640*360
+像素密度（点/m2）： 1137777
+箱体平整度（mm）： ≤0.1
+箱体重量（带模组）（Kg）： 4
+单点亮度校正： 支持
+单点色度校正： 支持
+亮度（nits）： 600
+色温（K）： 6500K到12000K可调
+视角（H/V）： 170°/160°
+亮度均匀性： ≥97%
+色度均匀性： ±0.003Cx,Cy之内
+对比度： 20000:1
+驱动方式： 恒流驱动
+换帧频率（Hz）： 50/60
+灰度等级： 14bit
+刷新频率（Hz）： ≥3840
+供电要求： AC100～240V
+最大功耗（W/m2）： 320
+平均功耗（W/m2）： 110
+维护方式： 前维护
+防护等级（正面）： IP65
+连接方式： 硬连接
+工作温度（℃）： -10～+40℃
+工作湿度（RH）： 10～90%RH无结露
+存储温度（℃）： -20～+60℃
+存储湿度（RH）： 10～90%RH无结露
+LED理论寿命（H）： 100000</t>
+  </si>
+  <si>
+    <t>600*337.5</t>
+  </si>
+  <si>
+    <t>太湖COB-P1.2 600x337.5</t>
+  </si>
+  <si>
+    <t>MW7212-S-T</t>
+  </si>
+  <si>
+    <t>太湖COB P1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">封装形式： 全倒装COB共阴
+像素间距（mm）： 1.2
+模组尺寸（W*H）（mm）： 150*168.75
+模组分辨率（W*H）： 120*135
+箱体尺寸（W*H*D）（mm）： 600*337.5*39.5
+箱体分辨率（W*H）： 480*270
+像素密度（点/m2）： 640000
+箱体平整度（mm）： ≤0.1
+箱体重量（带模组）（Kg）： 4
+单点亮度校正： 支持
+单点色度校正： 支持
+亮度（nits）： 600
+色温（K）： 6500K到12000K可调
+视角（H/V）： 170°/160°
+亮度均匀性： ≥97%
+色度均匀性： ±0.003Cx,Cy之内
+对比度： 20000:1
+驱动方式： 恒流驱动
+换帧频率（Hz）： 50/60
+灰度等级： 14bit
+刷新频率（Hz）： ≥3840
+供电要求： AC100～240V
+最大功耗（W/m2）： 270
+平均功耗（W/m2）： 100
+维护方式： 前维护
+防护等级（正面）： IP65
+连接方式： 硬连接
+工作温度（℃）： -10～+40℃
+工作湿度（RH）： 10～90%RH无结露
+存储温度（℃）： -20～+60℃
+存储湿度（RH）： 10～90%RH无结露
+LED理论寿命（H）： 100000
+</t>
+  </si>
+  <si>
+    <t>太湖COB-P1.5 600x337.5</t>
+  </si>
+  <si>
+    <t>MW7215-S-T</t>
+  </si>
+  <si>
+    <t>太湖COB P1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">封装形式： 全倒装COB共阴
+像素间距（mm）： 1.5
+模组尺寸（W*H）（mm）： 150*168.75
+模组分辨率（W*H）： 96*108
+箱体尺寸（W*H*D）（mm）： 600*337.5*39.5
+箱体分辨率（W*H）： 384*216
+像素密度（点/m2）： 409600
+箱体平整度（mm）： ≤0.1
+箱体重量（带模组）（Kg）： 4
+单点亮度校正： 支持
+单点色度校正： 支持
+亮度（nits）： 600
+色温（K）： 6500K到12000K可调
+视角（H/V）： 170°/160°
+亮度均匀性： ≥97%
+色度均匀性： ±0.003Cx,Cy之内
+对比度： 20000:1
+驱动方式： 恒流驱动
+换帧频率（Hz）： 50/60
+灰度等级： 14bit
+刷新频率（Hz）： ≥3840
+供电要求： AC100～240V
+最大功耗（W/m2）： 260
+平均功耗（W/m2）： 100
+维护方式： 前维护
+防护等级（正面）： IP65
+连接方式： 硬连接
+工作温度（℃）： -10～+40℃
+工作湿度（RH）： 10～90%RH无结露
+存储温度（℃）： -20～+60℃
+存储湿度（RH）： 10～90%RH无结露
+LED理论寿命（H）： 100000
+</t>
+  </si>
+  <si>
+    <t>太湖SMD-P1.2 600x337.5</t>
+  </si>
+  <si>
+    <t>MW7912-S</t>
+  </si>
+  <si>
+    <t>太湖SMD P1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距： P1.25
+模组分辨率（W*H）： 240*135
+模组尺寸（W*H*D）（mm）： 300*168.75
+单元尺寸（W*H*D）（mm）： 600* 337.5 * 32
+单元分辨率（W*H）： 480*270
+单元重量（Kg）： 4.3±0.1
+像素密度（点/m2）： 640000
+箱体平整度（mm）： ≤0.15
+箱体材料： 压铸铝
+亮度（nits）： 600
+色温（K）： 2000～9500
+视角（H/V）： 140°/140°
+对比度： 5000：1
+灰度等级： 12bit-14bit
+扫描方式（S）： 60
+刷新频率（Hz）： 2880
+平均功耗（W/m2）： 150
+最大功耗（W/m2）： 600
+维护方式： 完全前维护
+防护等级： IP41
+软连接/硬连接： 硬连接
+工作温湿度（℃/RH）： -10℃～45℃ / 10%RH～60%RH（无结露）
+存储温湿度（℃/RH）： -10℃～55℃ / 10%RH～65%RH（无结露）
+LED理论寿命（H）： 100000
+</t>
+  </si>
+  <si>
+    <t>太湖SMD-P1.5 600x337.5</t>
+  </si>
+  <si>
+    <t>MW7915-S</t>
+  </si>
+  <si>
+    <t>太湖SMD P1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距： P1.5625
+模组分辨率（W*H）： 192*108
+模组尺寸（W*H*D）（mm）： 300*168.75
+单元尺寸（W*H*D）（mm）： 600* 337.5 * 32
+单元分辨率（W*H）： 384*216
+单元重量（Kg）： 4.3±0.1
+像素密度（点/m2）： 409600
+箱体平整度（mm）： ≤0.15
+箱体材料： 压铸铝
+亮度（nits）： 600
+色温（K）： 2000～9500
+视角（H/V）： 140°/140°
+对比度： 5000：1
+灰度等级： 12bit-14bit
+扫描方式（S）： 64
+刷新频率（Hz）： 2880
+平均功耗（W/m2）： 150
+最大功耗（W/m2）： 600
+维护方式： 完全前维护
+防护等级： IP41
+软连接/硬连接： 硬连接
+工作温湿度（℃/RH）： -10℃～45℃ / 10%RH～60%RH（无结露）
+存储温湿度（℃/RH）： -10℃～55℃ / 10%RH～65%RH（无结露）
+LED理论寿命（H）： 100000
+</t>
+  </si>
+  <si>
+    <t>太湖SMD-P1.8 600x337.5</t>
+  </si>
+  <si>
+    <t>MW7918-S</t>
+  </si>
+  <si>
+    <t>太湖SMD P1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距： P1.875
+模组分辨率（W*H）： 160*90
+模组尺寸（W*H*D）（mm）： 300*168.75
+单元尺寸（W*H*D）（mm）： 600* 337.5 * 32
+单元分辨率（W*H）： 320*180
+单元重量（Kg）： 4.3±0.1
+像素密度（点/m2）： 284444
+箱体平整度（mm）： ≤0.15
+箱体材料： 压铸铝
+亮度（nits）： 600
+色温（K）： 2000～9500
+视角（H/V）： 140°/140°
+对比度： 5000：1
+灰度等级： 12bit-14bit
+扫描方式（S）： 54
+刷新频率（Hz）： 2880
+平均功耗（W/m2）： 150
+最大功耗（W/m2）： 600
+维护方式： 完全前维护
+防护等级： IP41
+软连接/硬连接： 硬连接
+工作温湿度（℃/RH）： -10℃～45℃ / 10%RH～60%RH（无结露）
+存储温湿度（℃/RH）： -10℃～55℃ / 10%RH～65%RH（无结露）
+LED理论寿命（H）： 100000
+</t>
+  </si>
+  <si>
+    <t>湘湖SMD-P1.2 640x480</t>
+  </si>
+  <si>
+    <t>MW7912-P</t>
+  </si>
+  <si>
+    <t>湘湖SMD P1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距： P1.2
+模组分辨率（W*H）： 256*128
+模组尺寸（W*H*D）（mm）： 320*160*17
+单元尺寸（W*H*D）（mm）： 640*480*72
+单元分辨率（W*H）： 512*384
+单元重量（Kg）： 8.05
+像素密度（点/m2）： 640000
+箱体平整度（mm）： 0.2
+箱体组成： 2*3
+箱体材料： 压铸铝+石墨烯
+单点亮度校正： 支持
+单点色度校正： 支持
+亮度（nits）： 500
+色温（K）： 2000～9300
+视角（H/V）： 140°/140°
+发光点中心距偏差： ＜3%
+亮度均匀性： ≥97%
+色度均匀性： Cx,Cy±0.003
+对比度： 4000：1
+灰度等级： 14bit
+扫描方式（S）： 64
+驱动方式： 恒流驱动
+换帧频率（Hz）： 60
+刷新频率（Hz）： ≥3840
+供电要求（V）： AC 200～240
+平均功耗（W/m2）： 180
+最大功耗（W/m2）： 600
+维护方式： 前/后维护
+防护等级： IP30
+工作温湿度（℃/RH）： -10～+40℃/10～60%RH 无结凝
+存储温湿度（℃/RH）： -20～+60℃/10～65%RH 无结露
+LED理论寿命（H）： ≥50000
+</t>
+  </si>
+  <si>
+    <t>640*480</t>
+  </si>
+  <si>
+    <t>湘湖SMD-P1.5  640x480</t>
+  </si>
+  <si>
+    <t>MW7915-P</t>
+  </si>
+  <si>
+    <t>湘湖SMD P1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距： P1.5
+模组分辨率（W*H）： 208*104
+模组尺寸（W*H*D）（mm）： 320*160*16.6
+单元尺寸（W*H*D）（mm）： 640*480*71.4
+单元分辨率（W*H）： 416*312
+单元重量（Kg）： 7.95
+像素密度（点/m2）： 422500
+箱体平整度（mm）： 0.2
+箱体组成： 2*3
+箱体材料： 压铸铝+石墨烯
+单点亮度校正： 支持
+单点色度校正： 支持
+亮度（nits）： 500
+色温（K）： 2000～9300
+视角（H/V）： 140°/140°
+发光点中心距偏差： ＜3%
+亮度均匀性： ≥97%
+色度均匀性： Cx,Cy±0.003
+对比度： 4000：1
+灰度等级： 14bit
+扫描方式（S）： 52
+驱动方式： 恒流驱动
+换帧频率（Hz）： 60
+刷新频率（Hz）： ≥3840
+供电要求（V）： AC 200～240
+平均功耗（W/m2）： 180
+最大功耗（W/m2）： 600
+维护方式： 前/后维护
+防护等级： IP30
+工作温湿度（℃/RH）： -10～+40℃/10～60%RH 无结凝
+存储温湿度（℃/RH）： -20～+60℃/10～65%RH 无结露
+LED理论寿命（H）： ≥50000
+</t>
+  </si>
+  <si>
+    <t>湘湖SMD-P1.8  640x480</t>
+  </si>
+  <si>
+    <t>MW7918-P</t>
+  </si>
+  <si>
+    <t>湘湖SMD P1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距： P1.8
+模组分辨率（W*H）： 172*86
+模组尺寸（W*H*D）（mm）： 320*160*16.6
+单元尺寸（W*H*D）（mm）： 640*480*71.4
+单元分辨率（W*H）： 344*258
+单元重量（Kg）： 7.92
+像素密度（点/m2）： 295664
+箱体平整度（mm）： 0.2
+箱体组成： 2*3
+箱体材料： 压铸铝+石墨烯
+单点亮度校正： 支持
+单点色度校正： 支持
+亮度（nits）： 500
+色温（K）： 2000～9300
+视角（H/V）： 140°/140°
+发光点中心距偏差： ＜3%
+亮度均匀性： ≥97%
+色度均匀性： Cx,Cy±0.003
+对比度： 4000：1
+灰度等级： 14bit
+扫描方式（S）： 43
+驱动方式： 恒流驱动
+换帧频率（Hz）： 60
+刷新频率（Hz）： ≥3840
+供电要求（V）： AC 200～240
+平均功耗（W/m2）： 160
+最大功耗（W/m2）： 550
+维护方式： 前/后维护
+防护等级： IP30
+工作温湿度（℃/RH）： -10～+40℃/10～60%RH 无结凝
+存储温湿度（℃/RH）： -20～+60℃/10～65%RH 无结露
+LED理论寿命（H）： ≥50000
+</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P1.2 320x480</t>
+  </si>
+  <si>
+    <t>MW7912-P@S</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P1.2
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:256*384
+亮度（nits）:450
+像素密度（点/㎡）:640000
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:150
+最大功耗（W/㎡）:450
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
+  </si>
+  <si>
+    <t>320*480</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P1.5 320x480</t>
+  </si>
+  <si>
+    <t>MW7915-P@S</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P1.5
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:208*312
+亮度（nits）:500
+像素密度（点/㎡）:422500
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:120
+最大功耗（W/㎡）:350
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P1.8 320x480</t>
+  </si>
+  <si>
+    <t>MW7918-P@S</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P1.8
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:172*258
+亮度（nits）:500
+像素密度（点/㎡）:288906
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:110
+最大功耗（W/㎡）:340
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P2.0 320x480</t>
+  </si>
+  <si>
+    <t>MW7920-P@S</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P2.0
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:160*240
+亮度（nits）:450
+像素密度（点/㎡）:250000
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:110
+最大功耗（W/㎡）:340
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P2.5 320x480</t>
+  </si>
+  <si>
+    <t>MW7925-P@S</t>
+  </si>
+  <si>
+    <t>湘湖mini SMD P2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P2.5
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:128*192
+亮度（nits）:450
+像素密度（点/㎡）:160000
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:110
+最大功耗（W/㎡）:340
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
+  </si>
+  <si>
+    <t>湘湖mini COB P1.5 320x480</t>
+  </si>
+  <si>
+    <t>MW7915-P@SC</t>
+  </si>
+  <si>
+    <t>湘湖mini COB P1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P1.5
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:208*312
+亮度（nits）:500
+像素密度（点/㎡）:422500
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:110
+最大功耗（W/㎡）:320
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
+  </si>
+  <si>
+    <t>湘湖mini COB P1.8 320x480</t>
+  </si>
+  <si>
+    <t>MW7918-P@SC</t>
+  </si>
+  <si>
+    <t>湘湖mini COB P1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点间距:P1.8
+单元尺寸（W*H*D）（mm）:320*480
+单元分辨率（W*H）:172*258
+亮度（nits）:500
+像素密度（点/㎡）:288906
+刷新频率（Hz）:≥3840
+平均功耗（W/㎡）:100
+最大功耗（W/㎡）:300
+维护方式:前维护
+重量（Kg/pcs）:2.9±0.2
+</t>
   </si>
   <si>
     <t>CITIE</t>
@@ -1272,6 +2097,9 @@
   </si>
   <si>
     <t>JIESHOUKA-LN</t>
+  </si>
+  <si>
+    <t>8口LED接收卡LN</t>
   </si>
   <si>
     <t>8口LED接收卡</t>
@@ -1290,6 +2118,9 @@
 </t>
   </si>
   <si>
+    <t>12口LED接收卡LN</t>
+  </si>
+  <si>
     <t>12口LED接收卡</t>
   </si>
   <si>
@@ -1305,6 +2136,9 @@
 双程序备份，接收卡出厂时应用区保存了两份固件程序，以防程序更新过程异常出现接收卡死锁问题。</t>
   </si>
   <si>
+    <t>16口LED接收卡LN</t>
+  </si>
+  <si>
     <t>16口LED接收卡</t>
   </si>
   <si>
@@ -1323,10 +2157,13 @@
     <t>LEDCHULIQI-LN</t>
   </si>
   <si>
+    <t>2网口LED视频处理器LN</t>
+  </si>
+  <si>
+    <t>LN-V760</t>
+  </si>
+  <si>
     <t>2网口LED视频处理器</t>
-  </si>
-  <si>
-    <t>LN-V760</t>
   </si>
   <si>
     <t xml:space="preserve">视频输入:1个HDMI、1个DVI、1个VGA、1个CVBS、1个USB播放(Type A)
@@ -1343,10 +2180,13 @@
 </t>
   </si>
   <si>
+    <t>4网口LED视频处理器LN</t>
+  </si>
+  <si>
+    <t>LN-V960</t>
+  </si>
+  <si>
     <t>4网口LED视频处理器</t>
-  </si>
-  <si>
-    <t>LN-V960</t>
   </si>
   <si>
     <t xml:space="preserve">视频输入:1个HDMI、1个DVI、1个VGA、1个CVBS、1个USB播放(Type A)
@@ -1362,10 +2202,13 @@
 </t>
   </si>
   <si>
+    <t>6网口LED视频处理器LN</t>
+  </si>
+  <si>
+    <t>LN-V1060n</t>
+  </si>
+  <si>
     <t>6网口LED视频处理器</t>
-  </si>
-  <si>
-    <t>LN-V1060n</t>
   </si>
   <si>
     <t xml:space="preserve">视频输入:2个HDMI、1个DVI
@@ -1382,10 +2225,13 @@
 </t>
   </si>
   <si>
+    <t>10网口LED视频处理器LN</t>
+  </si>
+  <si>
+    <t>LN-V1160</t>
+  </si>
+  <si>
     <t>10网口LED视频处理器</t>
-  </si>
-  <si>
-    <t>LN-V1160</t>
   </si>
   <si>
     <t xml:space="preserve">视频输入:2个HDMI、1个DVI、1个AUDIO IN
@@ -1402,10 +2248,13 @@
 </t>
   </si>
   <si>
+    <t>16网口LED视频处理器LN</t>
+  </si>
+  <si>
+    <t>LN-V1260n</t>
+  </si>
+  <si>
     <t>16网口LED视频处理器</t>
-  </si>
-  <si>
-    <t>LN-V1260n</t>
   </si>
   <si>
     <t xml:space="preserve">视频输入:1个HDMI2.0、1个DP、4个HDMI1.3
@@ -1421,10 +2270,13 @@
 </t>
   </si>
   <si>
+    <t>24网口LED视频处理器LN</t>
+  </si>
+  <si>
+    <t>LN-V2460</t>
+  </si>
+  <si>
     <t>24网口LED视频处理器</t>
-  </si>
-  <si>
-    <t>LN-V2460</t>
   </si>
   <si>
     <t xml:space="preserve">视频输入分辨率:4096*2160@60Hz，支持分辨率任意设置
@@ -1450,7 +2302,7 @@
     <t>FASONGKA-LN</t>
   </si>
   <si>
-    <t>LED小间距产品1080P发送卡</t>
+    <t>LED小间距产品发送卡LN</t>
   </si>
   <si>
     <t>UNV-MCTRL700</t>
@@ -1471,6 +2323,103 @@
 </t>
   </si>
   <si>
+    <t>65W LED多媒体播放器LN</t>
+  </si>
+  <si>
+    <t>LN-TB1</t>
+  </si>
+  <si>
+    <t>65W LED多媒体播放器</t>
+  </si>
+  <si>
+    <t>最大带载65万像素，极限宽度1920，极限高度1080；
+支持1路千兆网口输出和1路立体音频输出；
+支持1路方口USB控制接口；
+支持1路USB2.0接口，支持U盘节目播放；
+支持1路B型USB接口，支持USB直连PC；
+配置4核处理器，主频1.2GHz，支持1080p的视频硬解码；
+支持PC、手机、Pad等多种用户终端节目发布和显示屏控制；
+自带WiFi AP ；</t>
+  </si>
+  <si>
+    <t>65W带HDMI LED多媒体播放器LN</t>
+  </si>
+  <si>
+    <t>LN-TB2</t>
+  </si>
+  <si>
+    <t>65W带HDMI LED多媒体播放器</t>
+  </si>
+  <si>
+    <t>最大带载65万像素，极限宽度1920，极限高度1080；
+支持1路千兆网口输出和1路立体音频输出；
+1路HDMI输入接口，支持HDMI 输入模式及全屏自适应播放；
+支持1路USB2.0接口，支持U盘节目播放；
+支持1路B型USB接口，支持USB直连PC；
+配置4核处理器，主频1.2GHz，支持1080p的视频硬解码；
+支持PC、手机、Pad等多种用户终端节目发布和显示屏控制；
+同步异步双模式；
+自带WiFi AP ；</t>
+  </si>
+  <si>
+    <t>130W带HDMI LED多媒体播放器LN</t>
+  </si>
+  <si>
+    <t>LN-TB40</t>
+  </si>
+  <si>
+    <t>130W带HDMI LED多媒体播放器</t>
+  </si>
+  <si>
+    <t>最大带载130万像素，极限宽度4096，极限高度4096；
+支持2路LED千兆网口输出和一路HDMI输出；
+支持1 路 HDMI输入接口和2 路传感器接口；
+支持1路路 USB 3.0（Type A）接口和1 路 USB（Type B）接口以及1 路千兆网口；
+配置4核A55处理器，主频1.8GHz，支持H.264、H.265 ；4K@60Hz视频解码；
+支持PC、手机、Pad等多种用户终端节目发布和显示屏控制；
+WiFi AP 和 WiFi STA 双模式切换；
+具有同步异步双模式；
+支持多屏同步播放；</t>
+  </si>
+  <si>
+    <t>230W带HDMI LED多媒体播放器LN</t>
+  </si>
+  <si>
+    <t>LN-TB60</t>
+  </si>
+  <si>
+    <t>230W带HDMI LED多媒体播放器</t>
+  </si>
+  <si>
+    <t>最大带载230万像素，极限宽度4096，极限高度4096；
+支持4路LED千兆网口输出、1路HDMI输出以及1路立体音频输出；
+支持1 路 HDMI输入接口和2 路传感器接口；
+支持1路 USB 3.0（Type A）接口和1 路 USB（Type B）接口以及1 路千兆网口；
+配置4核A55处理器，主频1.8GHz，支持H.264、H.265 4K@60Hz视频解码；
+支持PC、手机、Pad等多种用户终端节目发布和显示屏控制；
+WiFi AP 和 WiFi STA 双模式切换；
+具有同步异步双模式；
+支持多屏同步播放；</t>
+  </si>
+  <si>
+    <t>LCD多媒体播放器LN</t>
+  </si>
+  <si>
+    <t>LN-B4K</t>
+  </si>
+  <si>
+    <t>LCD多媒体播放器</t>
+  </si>
+  <si>
+    <t>支持1 路 HDMI输出接口和1 路立体音频输出接口
+支持1路 USB 3.0（Type A）接口、1 路 USB 2.0（Type A）接口、1 路 USB（Type B）接口以及1 路千兆网口
+配置4核A55处理器，主频1.8GHz，支持H.264、H.265 4K@60Hz视频解码
+支持PC、手机、Pad等多种用户终端节目发布和显示屏控制、集群远程节目发布和显示屏控制、集群远程监控屏体状态
+WiFi AP 和 WiFi STA 双模式切换
+具有同步异步双模式
+支持多屏同步播放</t>
+  </si>
+  <si>
     <t>FASONGKA-LC</t>
   </si>
   <si>
@@ -1608,6 +2557,152 @@
   </si>
   <si>
     <t>20网口LED视频处理器(视频输入分辨率:4096*2160@60Hz，支持分辨率任意设置 视频输入:1个HDMI（4K）、2个HDMI、2个DVI、1个DP、1个USB 带载网口:20个千兆网口、2个万兆光纤口 最大带载:1310万像素，最宽可达16384点，或最高可达8192点 音频输入:1个AUDIO IN 音频输出:1个AUDIO OUT 控制接口:1个USB IN、1个USB OUT、1个RS232、1个RJ45网口 其它接口:3D（预留），3D同步信号输出 工作电压:AC 100~240V 50/60Hz 整机功耗（W）:80 产品尺寸（W*H*D）（mm）:482.6*103.0*415.0 包装尺寸（W*H*D）（mm）:560.0*175.0*490.0 重量（Kg）:净重：6.2 毛重：8.9 工作温度:-20℃~60℃ 工作湿度:0%RH ~ 80%RH，无冷凝 储藏温度:-30℃~80℃ 储藏湿度:0%RH ~ 90%RH，无冷凝 )</t>
+  </si>
+  <si>
+    <t>2K播放器KLT</t>
+  </si>
+  <si>
+    <t>LC-B2K</t>
+  </si>
+  <si>
+    <t>2K播放器</t>
+  </si>
+  <si>
+    <t>全部采用工业级元器件，产品稳定可靠；
+支持1080P高清输出；
+自带8G内存，用户可用4G存储容量，支持USB播放；
+支持音频输出；
+全面兼容常规同步控制系统节目管理及显示屏配置方式；
+支持定时排程；
+支持多窗口，可自由设定窗口大小和位置，并支持窗口叠加；
+支持丰富的媒体素材，如图片、视频、文本、表格、时钟、流媒体、网页、天气等；
+支持多节目页播放；
+支持U盘即插即播；</t>
+  </si>
+  <si>
+    <t>4K播放器KLT</t>
+  </si>
+  <si>
+    <t>LC-B4K</t>
+  </si>
+  <si>
+    <t>4K播放器</t>
+  </si>
+  <si>
+    <t>全部采用工业级元器件，产品稳定可靠；
+输出显示分辨率最大支持3840*2160@30Hz，最宽3840，最高2160；
+自带8G内存，用户可用4G存储容量，支持USB播放；
+支持音频输出；
+全面兼容常规同步控制系统节目管理及显示屏配置方式；
+支持定时排程；
+支持多窗口，可自由设定窗口大小和位置，并支持窗口叠加；
+支持丰富的媒体素材，如图片、视频、文本、表格、时钟、流媒体、网页、天气等；
+支持多节目页播放；
+支持U盘即插即播；</t>
+  </si>
+  <si>
+    <t>65W带载播放器KLT</t>
+  </si>
+  <si>
+    <t>LC-B35</t>
+  </si>
+  <si>
+    <t>65W带载播放器</t>
+  </si>
+  <si>
+    <t>全部采用工业级元器件，产品稳定可靠；
+整机最大带载面积为65万像素，最宽带载4096像素，最高带载3840像素，支持同步输入画面缩放显示；
+自带8G内存，用户可用4G存储容量，支持USB播放；
+支持音频输出；
+全面兼容常规同步控制系统节目管理及显示屏配置方式；
+支持定时排程；
+支持多窗口，可自由设定窗口大小和位置，并支持窗口叠加
+支持丰富的媒体素材，如图片、视频、文本、表格、时钟、流媒体、网页、天气等；
+支持多节目页播放；
+支持U盘即插即播；</t>
+  </si>
+  <si>
+    <t>130W带载播放器KLT</t>
+  </si>
+  <si>
+    <t>LC-B60</t>
+  </si>
+  <si>
+    <t>130W带载播放器</t>
+  </si>
+  <si>
+    <t>全部采用工业级元器件，产品稳定可靠；
+整机最大带载面积为130万像素，最宽带载4096像素，最高带载2560像素，支持同步输入画面缩放显示；
+自带8G内存，用户可用4G存储容量，支持USB播放；
+支持音频输出；
+全面兼容常规同步控制系统节目管理及显示屏配置方式；
+支持定时排程；
+支持多窗口，可自由设定窗口大小和位置，并支持窗口叠加
+支持丰富的媒体素材，如图片、视频、文本、表格、时钟、流媒体、网页、天气等；
+支持多节目页播放；
+支持U盘即插即播；</t>
+  </si>
+  <si>
+    <t>LC-B100</t>
+  </si>
+  <si>
+    <t>全部采用工业级元器件，产品稳定可靠
+支持同步输入显示或者异步播放显示，支持设置同异步优先级
+整机最大带载面积为130万像素，最宽带载4096像素，最高带载2560像素，支持同步输入画面缩放显示
+异步最大可输出1920*1200@60Hz画面，最宽4096像素，最高2560像素
+自带8G内存，用户可用4G存储容量，支持USB播放
+支持音频输出
+全面兼容常规同步控制系统节目管理及显示屏配置方式
+支持定时排程
+支持多窗口，可自由设定窗口大小和位置，并支持窗口叠加
+支持丰富的媒体素材，如图片、视频、文本、表格、时钟、流媒体、网页、天气等
+支持多节目页播放
+支持U盘即插即播</t>
+  </si>
+  <si>
+    <t>230W带载播放器KLT</t>
+  </si>
+  <si>
+    <t>LC-B200</t>
+  </si>
+  <si>
+    <t>230W带载播放器</t>
+  </si>
+  <si>
+    <t>全部采用工业级元器件，产品稳定可靠；
+整机最大带载面积为230万像素，最宽带载4096像素，最高带载2560像素，支持同步输入画面缩放显示；
+自带8G内存，用户可用4G存储容量，支持USB播放；
+支持音频输出；
+全面兼容常规同步控制系统节目管理及显示屏配置方式；
+支持定时排程；
+支持多窗口，可自由设定窗口大小和位置，并支持窗口叠加
+支持丰富的媒体素材，如图片、视频、文本、表格、时钟、流媒体、网页、天气等；
+支持多节目页播放；
+支持U盘即插即播；</t>
+  </si>
+  <si>
+    <t>2路4K输出播控服务器KLT</t>
+  </si>
+  <si>
+    <t>LC-V4K-E</t>
+  </si>
+  <si>
+    <t>2路4K输出播控服务器</t>
+  </si>
+  <si>
+    <t>2路4K输出</t>
+  </si>
+  <si>
+    <t>4路4K输出播控服务器KLT</t>
+  </si>
+  <si>
+    <t>LC-V8K</t>
+  </si>
+  <si>
+    <t>4路4K输出播控服务器</t>
+  </si>
+  <si>
+    <t>4路4K输出</t>
   </si>
   <si>
     <t>PEIDIANXIANG</t>
@@ -1844,6 +2939,296 @@
 自控控制方式:PLC全智能远程控制专用软件</t>
   </si>
   <si>
+    <t>PEIDIANXIANG-HUWAI</t>
+  </si>
+  <si>
+    <t>120KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P120-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-200S/3300/IN:200A(德力西)
+交流接触器型号:CJX2-6511
+单P空开:DZ47S/40A
+功率容量:120KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:30路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:1000*800*300
+重量（Kg）:75
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>100KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P100-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-160S/3300/IN:160A(德力西)
+交流接触器型号:CJX2-6511
+单P空开:DZ47S/40A
+功率容量:100KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:24路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:1000*800*300
+重量（Kg）:69
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>80KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P080-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-160S/3300/IN:160A(德力西)
+交流接触器型号:CJX2-5011M
+单P空开:DZ47S/40A
+功率容量:80KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:24路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:800*600*250
+重量（Kg）:50
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>60KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P060-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-125S/3300/IN:125A(德力西)
+交流接触器型号:CJX2-5011M
+单P空开:DZ47S/40A
+功率容量:60KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:18路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:800*600*250
+重量（Kg）:45
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>50KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P050-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-100S/3300/IN:100A(德力西)
+交流接触器型号:CJX2-3210/5011
+单P空开:DZ47S/40A
+功率容量:50KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:15路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:650*500*250
+重量（Kg）:30
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>40KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P040-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-100S/3300/IN:100A(德力西)
+交流接触器型号:CJX2-5011
+单P空开:DZ47S/40A
+功率容量:40KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:12路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:650*500*250
+重量（Kg）:27
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键</t>
+  </si>
+  <si>
+    <t>30KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P030-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:CDM3-63S/3300/IN:63A(德力西)
+交流接触器型号:CJX2-3210M/5011
+单P空开:DZ47S/40A
+功率容量:30KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:9路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:650*500*250
+重量（Kg）:25
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>20KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P020-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:DZ47SN3/3P/IN:63A(德力西)
+交流接触器型号:CJX2-5011M
+单P空开:DZ47S/40A
+功率容量:20KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:6路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:500*400*250
+重量（Kg）:18
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>10KW户外配电箱</t>
+  </si>
+  <si>
+    <t>HB-P010-PH</t>
+  </si>
+  <si>
+    <t>控制模块:FX-3USA，PLC系列
+中间继电器:NXJ2Z-24V-2Z1正泰
+电源适配器:24V/2A(DOS)
+总开关:DZ47SN3/3P/IN:40A(德力西)
+交流接触器型号:CJX2-3210M
+单P空开:DZ47S/40A
+功率容量:10KW
+输入接线方式:3相5线
+输入电压:220/380V
+输入频率（Hz）:50 / 60
+输出接线方式:单相220V，LED显示屏要均匀接入3相电
+输出电压:交流AC 220V
+输出分路:3路单相交流220V
+分路开关容量（A）:20
+分路断路器安装:轨道安装
+防护等级:IP65
+防雷:C级，20KVA
+产品尺寸（W*H*D）（mm）:500*400*250
+重量（Kg）:17
+设备颜色:整机米黄色
+安装方式:固定安装
+维修控制方式:手动按键
+自控控制方式:PLC全智能远程控制专用软件</t>
+  </si>
+  <si>
+    <t>PEIDIANXIANG_ELSE</t>
+  </si>
+  <si>
+    <t>需要另外选购配电箱</t>
+  </si>
+  <si>
+    <t>LED配电柜</t>
+  </si>
+  <si>
     <t>ANZHUANGFUWU</t>
   </si>
   <si>
@@ -1860,6 +3245,272 @@
 内部框架采用镀锌钢管焊接，材料厚度≥2mm；
 钢管焊点喷涂防锈油漆防止生锈
 </t>
+  </si>
+  <si>
+    <t>PINGKONG</t>
+  </si>
+  <si>
+    <t>视频拼接处理服务器(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-2U</t>
+  </si>
+  <si>
+    <t>视频拼接处理服务器</t>
+  </si>
+  <si>
+    <t>1.主控系统采用嵌入式Linux 操作系统，支持7×24 小时稳定运行
+2.插卡式机箱设计，含4个业务板卡槽位，支持输入/输出板卡任意混插，支持多种板卡类型（HDMI、DVI-D、VGA、HDMI-4K）
+3.支持在电视墙上的任意位置进行开窗、漫游、缩放、叠加操作，支持一键建立M*N窗口布局，单机可建立管理4个配置不同的电视墙及最高64个场景保存，支持场景间轮巡
+4.支持EDID自定义视频源分辨率，可采集非常规分辨率图像及点对点输出至电视墙显示
+5.支持配合小间距LED使用
+6.支持虚拟LED字幕功能，最多设置1条虚拟LED字幕，可任意调整字幕的位置、大小、颜色速度等
+7.支持大屏开关机功能，内置主流的拼接屏板卡的开关机协议，并支持自定义开关机协议
+8.支持音频随路输入，并独立输出口输出音频信号。</t>
+  </si>
+  <si>
+    <t>PINGKONG-SHURU</t>
+  </si>
+  <si>
+    <t>4路HDMI输入板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-04HI-E-NB</t>
+  </si>
+  <si>
+    <t>4路HDMI输入板卡</t>
+  </si>
+  <si>
+    <t>4路HDMI输入接口，最高输入分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>8路HDMI输入板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-08HI-E-NB</t>
+  </si>
+  <si>
+    <t>8路HDMI输入板卡</t>
+  </si>
+  <si>
+    <t>8路HDMI输入接口，最高输入分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>4路VGA输入板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-04VA-E-NB</t>
+  </si>
+  <si>
+    <t>4路VGA输入板卡</t>
+  </si>
+  <si>
+    <t>4路VGA输入接口，最高输入分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>2路4K HDMI输入板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-02UH-E-NB</t>
+  </si>
+  <si>
+    <t>2路4K HDMI输入板卡</t>
+  </si>
+  <si>
+    <t>2路HDMI-4K输入接口，最高输入分辨率3840x2160@30HZ</t>
+  </si>
+  <si>
+    <t>4路DVI输入板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-04DI-E-NB</t>
+  </si>
+  <si>
+    <t>4路DVI输入板卡</t>
+  </si>
+  <si>
+    <t>4路DVI输入接口，最高输入分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>PINGKONG-SHUCHU</t>
+  </si>
+  <si>
+    <t>4路HDMI输出板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-04HI-X-NB</t>
+  </si>
+  <si>
+    <t>4路HDMI输出板卡</t>
+  </si>
+  <si>
+    <t>4路HDMI输出接口，最高输出分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>8路HDMI输出板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-08HI-X-NB</t>
+  </si>
+  <si>
+    <t>8路HDMI输出板卡</t>
+  </si>
+  <si>
+    <t>8路HDMI输出接口，最高输出分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>4路DVI输出板卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-04DI-X-NB</t>
+  </si>
+  <si>
+    <t>4路DVI输出板卡</t>
+  </si>
+  <si>
+    <t>4路DVI输出接口，最高输出分辨率1920x1200@60HZ</t>
+  </si>
+  <si>
+    <t>8网口LED输出卡(2U)</t>
+  </si>
+  <si>
+    <t>VC-A30-08NE-X-NB</t>
+  </si>
+  <si>
+    <t>8网口LED输出卡</t>
+  </si>
+  <si>
+    <t>8路RJ45输出口，单板卡最大带载460万像素</t>
+  </si>
+  <si>
+    <t>VC-A30-08NEB-X-NB</t>
+  </si>
+  <si>
+    <t>视频拼接处理服务器(3U)</t>
+  </si>
+  <si>
+    <t>VC-A30-3U</t>
+  </si>
+  <si>
+    <t>1.主控系统采用嵌入式Linux 操作系统，支持7×24 小时稳定运行
+2.插卡式机箱设计，含10个业务板卡槽位，支持输入/输出板卡任意混插，可热拔插并支持多种板卡类型（HDMI、DVI-D、VGA、HDMI-4K）
+3.支持在电视墙上的任意位置进行开窗、漫游、缩放、叠加操作，支持一键建立M*N窗口布局，单机可建立管理16个配置不同的电视墙及最高64个场景保存，支持场景间轮巡
+4.支持EDID自定义视频源分辨率，可采集非常规分辨率图像及点对点输出至电视墙显示
+5.支持配合小间距LED使用
+6.支持虚拟LED字幕功能，并可任意调整字幕的位置、大小、颜色速度等
+7.支持大屏开关机功能，内置主流的拼接屏板卡的开关机协议，并支持自定义开关机协议
+8.支持级联，最大可支持6台设备级联</t>
+  </si>
+  <si>
+    <t>级联板(3U)</t>
+  </si>
+  <si>
+    <t>VC-A30-F-MCU</t>
+  </si>
+  <si>
+    <t>级联板</t>
+  </si>
+  <si>
+    <t>扩展机箱（含扩展柜和扩展交换板）(3U)</t>
+  </si>
+  <si>
+    <t>VC-A30-3U-EXT</t>
+  </si>
+  <si>
+    <t>扩展机箱（含扩展柜和扩展交换板）</t>
+  </si>
+  <si>
+    <t>扩展柜含10个业务插槽（选配）</t>
+  </si>
+  <si>
+    <t>冗余电源(3U)</t>
+  </si>
+  <si>
+    <t>PWR-AC1229A-VC</t>
+  </si>
+  <si>
+    <t>冗余电源</t>
+  </si>
+  <si>
+    <t>350W功能电源模块（选配）</t>
+  </si>
+  <si>
+    <t>理线架(3U)</t>
+  </si>
+  <si>
+    <t>HB-SC-3U-LMF</t>
+  </si>
+  <si>
+    <t>理线架</t>
+  </si>
+  <si>
+    <t>4路HDMI输入板卡(3U)</t>
+  </si>
+  <si>
+    <t>8路HDMI输入板卡(3U)</t>
+  </si>
+  <si>
+    <t>4路VGA输入板卡(3U)</t>
+  </si>
+  <si>
+    <t>4路DVI输入板卡(3U)</t>
+  </si>
+  <si>
+    <t>2路4K30Hz HDMI输入板卡(3U)</t>
+  </si>
+  <si>
+    <t>2路4K30Hz HDMI输入板卡</t>
+  </si>
+  <si>
+    <t>2路HDMI-4K30Hz输入接口，最高输入分辨率3840x2160@30HZ</t>
+  </si>
+  <si>
+    <t>2路4K60Hz HDMI输入板卡(3U)</t>
+  </si>
+  <si>
+    <t>VC-A30-02UHEC-E-NB</t>
+  </si>
+  <si>
+    <t>2路4K60Hz HDMI输入板卡</t>
+  </si>
+  <si>
+    <t>2路HDMI-4K60Hz输入接口，最高输入分辨率3840x2160@60HZ。板卡具备2路HDMI和2路DP接口，任选2路使用</t>
+  </si>
+  <si>
+    <t>4路HDMI输出板卡(3U)</t>
+  </si>
+  <si>
+    <t>8路HDMI输出板卡(3U)</t>
+  </si>
+  <si>
+    <t>4路DVI输出板卡(3U)</t>
+  </si>
+  <si>
+    <t>2路4K30Hz HDMI输出板卡(3U)</t>
+  </si>
+  <si>
+    <t>VC-A30-02UH-X-NB</t>
+  </si>
+  <si>
+    <t>2路4K30Hz HDMI输出板卡</t>
+  </si>
+  <si>
+    <t>2路HDMI-4K输出接口，最高输入分辨率3840x2160@30HZ</t>
+  </si>
+  <si>
+    <t>2路4K60Hz HDMI输出板卡(3U)</t>
+  </si>
+  <si>
+    <t>VC-A30-02UHE-X-NB</t>
+  </si>
+  <si>
+    <t>2路4K60Hz HDMI输出板卡</t>
+  </si>
+  <si>
+    <t>2路HDMI-4K输出接口，最高输入分辨率3840x2160@60HZ</t>
+  </si>
+  <si>
+    <t>8网口LED输出卡(3U)</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +3523,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1897,6 +3548,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -1906,6 +3563,17 @@
       <sz val="9"/>
       <color theme="0" tint="-0.349986266670736"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2077,8 +3745,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2087,7 +3761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,6 +3786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,7 +3982,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2300,29 +3992,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2427,31 +4106,19 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2460,43 +4127,46 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2505,80 +4175,89 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2589,75 +4268,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3186,1759 +4896,3505 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.1666666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="10.1" style="4" customWidth="1"/>
-    <col min="8" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.1666666666667" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="10.125" style="4"/>
-    <col min="15" max="15" width="9" style="4"/>
-    <col min="16" max="16" width="9.99166666666667" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="21.525" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.1666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="10.1" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="11.125" style="6"/>
+    <col min="11" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="12.1666666666667" style="5" customWidth="1"/>
+    <col min="13" max="14" width="9" style="5"/>
+    <col min="15" max="15" width="9.25" style="5"/>
+    <col min="16" max="16" width="10.125" style="5"/>
+    <col min="17" max="17" width="11.125" style="5"/>
+    <col min="18" max="18" width="9.99166666666667" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>65</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>110</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>165</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <v>300</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1">
+        <v>208</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1">
+        <v>297</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1">
+        <v>446</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1">
+        <v>640</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1040</v>
+      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1840</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2070</v>
+      </c>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4600</v>
+      </c>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6900</v>
+      </c>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9200</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2190</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2990</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4320</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1750</v>
+      </c>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4100</v>
+      </c>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4200</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7600</v>
+      </c>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="1">
+        <v>350</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="1">
+        <v>600</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="1">
+        <v>209</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="1">
+        <v>600</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1.5385</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="1">
+        <v>132</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="1">
+        <v>550</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1.86</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="1">
+        <v>118</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="1">
+        <v>550</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:18">
+      <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="1">
+        <v>65</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="1">
+        <v>550</v>
+      </c>
+      <c r="J33" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="P33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="1">
+        <v>53</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="1">
+        <v>550</v>
+      </c>
+      <c r="J34" s="11">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:18">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="1">
+        <v>252</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="15">
+        <v>800</v>
+      </c>
+      <c r="J35" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="14"/>
+      <c r="P35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="H36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="15">
+        <v>800</v>
+      </c>
+      <c r="J36" s="16">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:18">
+      <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="1">
+        <v>95</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="15">
+        <v>800</v>
+      </c>
+      <c r="J37" s="16">
+        <v>4</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:18">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="1">
+        <v>77</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="15">
+        <v>800</v>
+      </c>
+      <c r="J38" s="16">
+        <v>5</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:18">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="H39" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="15">
+        <v>800</v>
+      </c>
+      <c r="J39" s="16">
+        <v>6</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:18">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="H40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="15">
+        <v>800</v>
+      </c>
+      <c r="J40" s="16">
+        <v>8</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="1">
+        <v>25200</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="1">
+        <v>370</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="1">
+        <v>12360</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="17">
+        <v>360</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="1">
+        <v>11040</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="1">
+        <v>350</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>13200</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I44" s="1">
+        <v>544</v>
+      </c>
+      <c r="J44" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10200</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" s="1">
+        <v>463</v>
+      </c>
+      <c r="J45" s="11">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8160</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="5">
+        <v>430</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10800</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" s="5">
+        <v>459</v>
+      </c>
+      <c r="J47" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7680</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="1">
+        <v>353</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1.5385</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5760</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="1">
+        <v>371</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10200</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I50" s="5">
+        <v>450</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7080</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I51" s="5">
+        <v>350</v>
+      </c>
+      <c r="J51" s="11">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I52" s="5">
+        <v>340</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4560</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I53" s="5">
+        <v>340</v>
+      </c>
+      <c r="J53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3720</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I54" s="5">
+        <v>340</v>
+      </c>
+      <c r="J54" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="1">
+        <v>8520</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" s="5">
+        <v>320</v>
+      </c>
+      <c r="J55" s="11">
+        <v>1.5385</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6240</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="5">
+        <v>300</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" s="1">
+        <v>670</v>
+      </c>
+      <c r="O62" s="18">
+        <v>1235000</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:15">
+      <c r="A63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1165</v>
+      </c>
+      <c r="O63" s="18">
+        <v>2470000</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:15">
+      <c r="A64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2265</v>
+      </c>
+      <c r="O64" s="18">
+        <v>3705000</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:15">
+      <c r="A65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4455</v>
+      </c>
+      <c r="O65" s="18">
+        <v>6175000</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:15">
+      <c r="A66" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F66" s="1">
+        <v>9845</v>
+      </c>
+      <c r="O66" s="18">
+        <v>9880000</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:15">
+      <c r="A67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="1">
+        <v>12980</v>
+      </c>
+      <c r="O67" s="18">
+        <v>14820000</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:15">
+      <c r="A68" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1715</v>
+      </c>
+      <c r="N68" s="5">
+        <v>4</v>
+      </c>
+      <c r="O68" s="5">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="1">
+        <v>340</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="O69" s="5">
+        <v>61750</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" s="1">
+        <v>660</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="O70" s="5">
+        <v>61750</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="O71" s="5">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2530</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="O72" s="5">
+        <v>218500</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A74" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="21">
+        <v>1475</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="N74" s="4">
+        <v>4</v>
+      </c>
+      <c r="O74" s="4">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A75" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="F75" s="21">
+        <v>70</v>
+      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A76" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D76" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" s="21">
+        <v>82</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A77" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D77" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" s="21">
+        <v>95</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A78" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F78" s="21">
+        <v>695</v>
+      </c>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="O78" s="4">
+        <v>1244500</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A79" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" s="21">
+        <v>1410</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="O79" s="4">
+        <v>2470000</v>
+      </c>
+    </row>
+    <row r="80" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A80" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" s="21">
+        <v>2970</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="O80" s="4">
+        <v>3705000</v>
+      </c>
+    </row>
+    <row r="81" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A81" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F81" s="21">
+        <v>4180</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="O81" s="4">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A82" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82" s="21">
+        <v>4620</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="O82" s="4">
+        <v>6840000</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A83" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83" s="21">
+        <v>9680</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="O83" s="4">
+        <v>9956000</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A84" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="F84" s="21">
+        <v>11880</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="O84" s="4">
+        <v>12445000</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F85" s="23">
+        <v>1100</v>
+      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+    </row>
+    <row r="86" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F86" s="25">
+        <v>2200</v>
+      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+    </row>
+    <row r="87" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F87" s="23">
+        <v>410</v>
+      </c>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="O87" s="4">
+        <v>61750</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="26">
+        <v>940</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="O88" s="4">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="F89" s="23">
+        <v>1760</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="O89" s="4">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" s="26">
+        <v>2420</v>
+      </c>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="O90" s="4">
+        <v>218500</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F91" s="23">
+        <v>15400</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F92" s="23">
+        <v>28600</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:15">
+      <c r="A93" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="F93" s="30">
+        <v>1680</v>
+      </c>
+      <c r="O93" s="40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:15">
+      <c r="A94" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="F94" s="30">
+        <v>1980</v>
+      </c>
+      <c r="O94" s="40">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:15">
+      <c r="A95" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F95" s="30">
+        <v>2280</v>
+      </c>
+      <c r="O95" s="40">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:15">
+      <c r="A96" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="F96" s="30">
+        <v>2580</v>
+      </c>
+      <c r="O96" s="40">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:15">
+      <c r="A97" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="F97" s="30">
+        <v>2880</v>
+      </c>
+      <c r="O97" s="40">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:15">
+      <c r="A98" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="F98" s="30">
+        <v>3180</v>
+      </c>
+      <c r="O98" s="40">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:15">
+      <c r="A99" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="F99" s="30">
+        <v>3480</v>
+      </c>
+      <c r="O99" s="40">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:15">
+      <c r="A100" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" s="30">
+        <v>11520</v>
+      </c>
+      <c r="O100" s="40">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:15">
+      <c r="A101" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="F101" s="30">
+        <v>9600</v>
+      </c>
+      <c r="O101" s="40">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:15">
+      <c r="A102" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102" s="30">
+        <v>8280</v>
+      </c>
+      <c r="O102" s="40">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:15">
+      <c r="A103" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E103" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F103" s="30">
+        <v>7320</v>
+      </c>
+      <c r="O103" s="40">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:15">
+      <c r="A104" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="F104" s="30">
+        <v>6600</v>
+      </c>
+      <c r="O104" s="40">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:15">
+      <c r="A105" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="F105" s="30">
+        <v>5760</v>
+      </c>
+      <c r="O105" s="40">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:15">
+      <c r="A106" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="F106" s="30">
+        <v>4410</v>
+      </c>
+      <c r="O106" s="40">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:15">
+      <c r="A107" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="F107" s="30">
+        <v>3540</v>
+      </c>
+      <c r="O107" s="40">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:15">
+      <c r="A108" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F108" s="30">
+        <v>3330</v>
+      </c>
+      <c r="O108" s="40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:15">
+      <c r="A109" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="30"/>
+      <c r="O109" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
+      <c r="A110" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F110" s="30">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
+      <c r="A111" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="F111" s="32">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
+      <c r="A112" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="F112" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
+      <c r="A113" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="F113" s="32">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="F114" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:6">
+      <c r="A115" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="F115" s="32">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
+      <c r="A116" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="F116" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:6">
+      <c r="A117" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="F117" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:6">
+      <c r="A118" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="F118" s="32">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:6">
+      <c r="A119" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="F119" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:6">
+      <c r="A120" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="F120" s="34">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:6">
+      <c r="A121" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="E121" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="F121" s="34">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:6">
+      <c r="A122" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D122" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="F122" s="37">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:6">
+      <c r="A123" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:6">
+      <c r="A124" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="E124" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="F124" s="37">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:6">
+      <c r="A125" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="F125" s="32">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:6">
+      <c r="A126" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:6">
+      <c r="A127" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="F127" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:6">
+      <c r="A128" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D128" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="F128" s="32">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:6">
+      <c r="A129" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B129" s="32" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="2">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="2">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="2">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="12">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="12">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="12">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="12">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="29" ht="56" customHeight="1" spans="1:15">
-      <c r="A29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="14">
-        <v>350</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="21">
-        <v>600</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" ht="56" customHeight="1" spans="1:15">
-      <c r="A30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="4">
-        <v>209</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="21">
-        <v>600</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" ht="56" customHeight="1" spans="1:15">
-      <c r="A31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="4">
-        <v>132</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="21">
-        <v>550</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" ht="56" customHeight="1" spans="1:15">
-      <c r="A32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="4">
-        <v>118</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="21">
-        <v>550</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" ht="56" customHeight="1" spans="1:16">
-      <c r="A33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="4">
-        <v>65</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="21">
-        <v>550</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P33" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" ht="56" customHeight="1" spans="1:16">
-      <c r="A34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="4">
-        <v>53</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="21">
-        <v>550</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:16">
-      <c r="A35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="4">
-        <v>252</v>
-      </c>
-      <c r="I35" s="23">
-        <v>800</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:16">
-      <c r="C36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="I36" s="23">
-        <v>800</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:16">
-      <c r="A37" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="4">
-        <v>95</v>
-      </c>
-      <c r="I37" s="23">
-        <v>800</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:16">
-      <c r="A38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="4">
-        <v>77</v>
-      </c>
-      <c r="I38" s="23">
-        <v>800</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:16">
-      <c r="C39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="I39" s="23">
-        <v>800</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:16">
-      <c r="C40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="I40" s="23">
-        <v>800</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:13">
-      <c r="A46" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="4">
-        <v>670</v>
-      </c>
-      <c r="M46" s="24">
-        <v>1235000</v>
-      </c>
-    </row>
-    <row r="47" ht="86" customHeight="1" spans="1:13">
-      <c r="A47" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1165</v>
-      </c>
-      <c r="M47" s="24">
-        <v>2470000</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:13">
-      <c r="A48" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2265</v>
-      </c>
-      <c r="M48" s="24">
-        <v>3705000</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:13">
-      <c r="A49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="4">
-        <v>4455</v>
-      </c>
-      <c r="M49" s="24">
-        <v>6175000</v>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="1" spans="1:13">
-      <c r="A50" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="4">
-        <v>9845</v>
-      </c>
-      <c r="M50" s="24">
-        <v>9880000</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:13">
-      <c r="A51" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="4">
-        <v>12980</v>
-      </c>
-      <c r="M51" s="24">
-        <v>14820000</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:13">
-      <c r="A52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1715</v>
-      </c>
-      <c r="M52" s="4">
-        <v>2185000</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:13">
-      <c r="A53" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1475</v>
-      </c>
-      <c r="M53" s="4">
-        <v>2185000</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:6">
-      <c r="A56" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:13">
-      <c r="A57" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F57" s="4">
-        <v>695</v>
-      </c>
-      <c r="M57" s="25">
-        <v>1244500</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:13">
-      <c r="A58" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1410</v>
-      </c>
-      <c r="M58" s="25">
-        <v>2470000</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:13">
-      <c r="A59" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="4">
-        <v>2970</v>
-      </c>
-      <c r="M59" s="25">
-        <v>3705000</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:13">
-      <c r="A60" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="F60" s="4">
-        <v>4180</v>
-      </c>
-      <c r="M60" s="25">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:13">
-      <c r="A61" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="C129" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="F129" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:6">
+      <c r="A130" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="F130" s="32">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:6">
+      <c r="A131" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="F131" s="32">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:6">
+      <c r="A132" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="E132" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="F132" s="37">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:6">
+      <c r="A133" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B133" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="E133" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F133" s="37">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:6">
+      <c r="A134" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="F134" s="37">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:6">
+      <c r="A135" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="E135" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="F135" s="37">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:6">
+      <c r="A136" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="E136" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="F136" s="37">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:6">
+      <c r="A137" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E137" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="F137" s="37">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:6">
+      <c r="A138" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="F138" s="34">
         <v>4620</v>
       </c>
-      <c r="M61" s="25">
-        <v>6840000</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:13">
-      <c r="A62" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F62" s="4">
-        <v>9680</v>
-      </c>
-      <c r="M62" s="25">
-        <v>9956000</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:13">
-      <c r="A63" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="4">
-        <v>11880</v>
-      </c>
-      <c r="M63" s="25">
-        <v>12445000</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:13">
-      <c r="A64" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1680</v>
-      </c>
-      <c r="M64" s="26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:13">
-      <c r="A65" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1980</v>
-      </c>
-      <c r="M65" s="26">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:13">
-      <c r="A66" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="F66" s="4">
-        <v>2280</v>
-      </c>
-      <c r="M66" s="26">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:13">
-      <c r="A67" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F67" s="4">
-        <v>2580</v>
-      </c>
-      <c r="M67" s="26">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:13">
-      <c r="A68" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="F68" s="4">
-        <v>2880</v>
-      </c>
-      <c r="M68" s="26">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:13">
-      <c r="A69" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F69" s="4">
-        <v>3180</v>
-      </c>
-      <c r="M69" s="26">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:13">
-      <c r="A70" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="4">
-        <v>3480</v>
-      </c>
-      <c r="M70" s="26">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F71" s="4">
-        <v>650</v>
+    </row>
+    <row r="139" customHeight="1" spans="1:6">
+      <c r="A139" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="C139" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="F139" s="34">
+        <v>4840</v>
       </c>
     </row>
   </sheetData>
